--- a/stock/data/한국항공우주.xlsx
+++ b/stock/data/한국항공우주.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3143"/>
+  <dimension ref="A1:G3176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72734,10 +72734,769 @@
         <v>51500</v>
       </c>
       <c r="F3143" t="n">
-        <v>894786</v>
+        <v>901521</v>
       </c>
       <c r="G3143" t="n">
         <v>2.182539682539682</v>
+      </c>
+    </row>
+    <row r="3144">
+      <c r="A3144" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B3144" t="n">
+        <v>52200</v>
+      </c>
+      <c r="C3144" t="n">
+        <v>52400</v>
+      </c>
+      <c r="D3144" t="n">
+        <v>51500</v>
+      </c>
+      <c r="E3144" t="n">
+        <v>52100</v>
+      </c>
+      <c r="F3144" t="n">
+        <v>452440</v>
+      </c>
+      <c r="G3144" t="n">
+        <v>1.16504854368932</v>
+      </c>
+    </row>
+    <row r="3145">
+      <c r="A3145" s="2" t="n">
+        <v>45384</v>
+      </c>
+      <c r="B3145" t="n">
+        <v>52100</v>
+      </c>
+      <c r="C3145" t="n">
+        <v>52500</v>
+      </c>
+      <c r="D3145" t="n">
+        <v>51400</v>
+      </c>
+      <c r="E3145" t="n">
+        <v>52300</v>
+      </c>
+      <c r="F3145" t="n">
+        <v>540812</v>
+      </c>
+      <c r="G3145" t="n">
+        <v>0.3838771593090211</v>
+      </c>
+    </row>
+    <row r="3146">
+      <c r="A3146" s="2" t="n">
+        <v>45385</v>
+      </c>
+      <c r="B3146" t="n">
+        <v>51800</v>
+      </c>
+      <c r="C3146" t="n">
+        <v>51900</v>
+      </c>
+      <c r="D3146" t="n">
+        <v>49950</v>
+      </c>
+      <c r="E3146" t="n">
+        <v>50300</v>
+      </c>
+      <c r="F3146" t="n">
+        <v>952809</v>
+      </c>
+      <c r="G3146" t="n">
+        <v>-3.824091778202677</v>
+      </c>
+    </row>
+    <row r="3147">
+      <c r="A3147" s="2" t="n">
+        <v>45386</v>
+      </c>
+      <c r="B3147" t="n">
+        <v>50700</v>
+      </c>
+      <c r="C3147" t="n">
+        <v>50800</v>
+      </c>
+      <c r="D3147" t="n">
+        <v>50000</v>
+      </c>
+      <c r="E3147" t="n">
+        <v>50600</v>
+      </c>
+      <c r="F3147" t="n">
+        <v>401380</v>
+      </c>
+      <c r="G3147" t="n">
+        <v>0.5964214711729622</v>
+      </c>
+    </row>
+    <row r="3148">
+      <c r="A3148" s="2" t="n">
+        <v>45387</v>
+      </c>
+      <c r="B3148" t="n">
+        <v>50100</v>
+      </c>
+      <c r="C3148" t="n">
+        <v>50400</v>
+      </c>
+      <c r="D3148" t="n">
+        <v>49800</v>
+      </c>
+      <c r="E3148" t="n">
+        <v>49950</v>
+      </c>
+      <c r="F3148" t="n">
+        <v>413264</v>
+      </c>
+      <c r="G3148" t="n">
+        <v>-1.284584980237154</v>
+      </c>
+    </row>
+    <row r="3149">
+      <c r="A3149" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="B3149" t="n">
+        <v>49950</v>
+      </c>
+      <c r="C3149" t="n">
+        <v>50200</v>
+      </c>
+      <c r="D3149" t="n">
+        <v>49000</v>
+      </c>
+      <c r="E3149" t="n">
+        <v>49100</v>
+      </c>
+      <c r="F3149" t="n">
+        <v>542907</v>
+      </c>
+      <c r="G3149" t="n">
+        <v>-1.701701701701702</v>
+      </c>
+    </row>
+    <row r="3150">
+      <c r="A3150" s="2" t="n">
+        <v>45391</v>
+      </c>
+      <c r="B3150" t="n">
+        <v>49100</v>
+      </c>
+      <c r="C3150" t="n">
+        <v>50200</v>
+      </c>
+      <c r="D3150" t="n">
+        <v>49100</v>
+      </c>
+      <c r="E3150" t="n">
+        <v>49450</v>
+      </c>
+      <c r="F3150" t="n">
+        <v>357834</v>
+      </c>
+      <c r="G3150" t="n">
+        <v>0.7128309572301426</v>
+      </c>
+    </row>
+    <row r="3151">
+      <c r="A3151" s="2" t="n">
+        <v>45393</v>
+      </c>
+      <c r="B3151" t="n">
+        <v>49000</v>
+      </c>
+      <c r="C3151" t="n">
+        <v>49650</v>
+      </c>
+      <c r="D3151" t="n">
+        <v>48500</v>
+      </c>
+      <c r="E3151" t="n">
+        <v>49650</v>
+      </c>
+      <c r="F3151" t="n">
+        <v>380757</v>
+      </c>
+      <c r="G3151" t="n">
+        <v>0.4044489383215369</v>
+      </c>
+    </row>
+    <row r="3152">
+      <c r="A3152" s="2" t="n">
+        <v>45394</v>
+      </c>
+      <c r="B3152" t="n">
+        <v>49400</v>
+      </c>
+      <c r="C3152" t="n">
+        <v>49600</v>
+      </c>
+      <c r="D3152" t="n">
+        <v>48600</v>
+      </c>
+      <c r="E3152" t="n">
+        <v>48600</v>
+      </c>
+      <c r="F3152" t="n">
+        <v>411322</v>
+      </c>
+      <c r="G3152" t="n">
+        <v>-2.114803625377644</v>
+      </c>
+    </row>
+    <row r="3153">
+      <c r="A3153" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="B3153" t="n">
+        <v>48550</v>
+      </c>
+      <c r="C3153" t="n">
+        <v>50600</v>
+      </c>
+      <c r="D3153" t="n">
+        <v>48050</v>
+      </c>
+      <c r="E3153" t="n">
+        <v>49900</v>
+      </c>
+      <c r="F3153" t="n">
+        <v>718819</v>
+      </c>
+      <c r="G3153" t="n">
+        <v>2.674897119341564</v>
+      </c>
+    </row>
+    <row r="3154">
+      <c r="A3154" s="2" t="n">
+        <v>45398</v>
+      </c>
+      <c r="B3154" t="n">
+        <v>49950</v>
+      </c>
+      <c r="C3154" t="n">
+        <v>51100</v>
+      </c>
+      <c r="D3154" t="n">
+        <v>48600</v>
+      </c>
+      <c r="E3154" t="n">
+        <v>48750</v>
+      </c>
+      <c r="F3154" t="n">
+        <v>694769</v>
+      </c>
+      <c r="G3154" t="n">
+        <v>-2.304609218436874</v>
+      </c>
+    </row>
+    <row r="3155">
+      <c r="A3155" s="2" t="n">
+        <v>45399</v>
+      </c>
+      <c r="B3155" t="n">
+        <v>48850</v>
+      </c>
+      <c r="C3155" t="n">
+        <v>49500</v>
+      </c>
+      <c r="D3155" t="n">
+        <v>48550</v>
+      </c>
+      <c r="E3155" t="n">
+        <v>48550</v>
+      </c>
+      <c r="F3155" t="n">
+        <v>311025</v>
+      </c>
+      <c r="G3155" t="n">
+        <v>-0.4102564102564102</v>
+      </c>
+    </row>
+    <row r="3156">
+      <c r="A3156" s="2" t="n">
+        <v>45400</v>
+      </c>
+      <c r="B3156" t="n">
+        <v>48600</v>
+      </c>
+      <c r="C3156" t="n">
+        <v>49700</v>
+      </c>
+      <c r="D3156" t="n">
+        <v>48300</v>
+      </c>
+      <c r="E3156" t="n">
+        <v>49050</v>
+      </c>
+      <c r="F3156" t="n">
+        <v>385990</v>
+      </c>
+      <c r="G3156" t="n">
+        <v>1.029866117404737</v>
+      </c>
+    </row>
+    <row r="3157">
+      <c r="A3157" s="2" t="n">
+        <v>45401</v>
+      </c>
+      <c r="B3157" t="n">
+        <v>49050</v>
+      </c>
+      <c r="C3157" t="n">
+        <v>49400</v>
+      </c>
+      <c r="D3157" t="n">
+        <v>48500</v>
+      </c>
+      <c r="E3157" t="n">
+        <v>49200</v>
+      </c>
+      <c r="F3157" t="n">
+        <v>428526</v>
+      </c>
+      <c r="G3157" t="n">
+        <v>0.3058103975535168</v>
+      </c>
+    </row>
+    <row r="3158">
+      <c r="A3158" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="B3158" t="n">
+        <v>49600</v>
+      </c>
+      <c r="C3158" t="n">
+        <v>50100</v>
+      </c>
+      <c r="D3158" t="n">
+        <v>49250</v>
+      </c>
+      <c r="E3158" t="n">
+        <v>50100</v>
+      </c>
+      <c r="F3158" t="n">
+        <v>387903</v>
+      </c>
+      <c r="G3158" t="n">
+        <v>1.829268292682927</v>
+      </c>
+    </row>
+    <row r="3159">
+      <c r="A3159" s="2" t="n">
+        <v>45405</v>
+      </c>
+      <c r="B3159" t="n">
+        <v>49950</v>
+      </c>
+      <c r="C3159" t="n">
+        <v>51900</v>
+      </c>
+      <c r="D3159" t="n">
+        <v>49950</v>
+      </c>
+      <c r="E3159" t="n">
+        <v>51300</v>
+      </c>
+      <c r="F3159" t="n">
+        <v>757832</v>
+      </c>
+      <c r="G3159" t="n">
+        <v>2.395209580838324</v>
+      </c>
+    </row>
+    <row r="3160">
+      <c r="A3160" s="2" t="n">
+        <v>45406</v>
+      </c>
+      <c r="B3160" t="n">
+        <v>51300</v>
+      </c>
+      <c r="C3160" t="n">
+        <v>52900</v>
+      </c>
+      <c r="D3160" t="n">
+        <v>50800</v>
+      </c>
+      <c r="E3160" t="n">
+        <v>52600</v>
+      </c>
+      <c r="F3160" t="n">
+        <v>775102</v>
+      </c>
+      <c r="G3160" t="n">
+        <v>2.53411306042885</v>
+      </c>
+    </row>
+    <row r="3161">
+      <c r="A3161" s="2" t="n">
+        <v>45407</v>
+      </c>
+      <c r="B3161" t="n">
+        <v>52600</v>
+      </c>
+      <c r="C3161" t="n">
+        <v>53300</v>
+      </c>
+      <c r="D3161" t="n">
+        <v>52100</v>
+      </c>
+      <c r="E3161" t="n">
+        <v>52500</v>
+      </c>
+      <c r="F3161" t="n">
+        <v>588840</v>
+      </c>
+      <c r="G3161" t="n">
+        <v>-0.1901140684410646</v>
+      </c>
+    </row>
+    <row r="3162">
+      <c r="A3162" s="2" t="n">
+        <v>45408</v>
+      </c>
+      <c r="B3162" t="n">
+        <v>52300</v>
+      </c>
+      <c r="C3162" t="n">
+        <v>52800</v>
+      </c>
+      <c r="D3162" t="n">
+        <v>52000</v>
+      </c>
+      <c r="E3162" t="n">
+        <v>52800</v>
+      </c>
+      <c r="F3162" t="n">
+        <v>422642</v>
+      </c>
+      <c r="G3162" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="3163">
+      <c r="A3163" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="B3163" t="n">
+        <v>52900</v>
+      </c>
+      <c r="C3163" t="n">
+        <v>53700</v>
+      </c>
+      <c r="D3163" t="n">
+        <v>52500</v>
+      </c>
+      <c r="E3163" t="n">
+        <v>53700</v>
+      </c>
+      <c r="F3163" t="n">
+        <v>626392</v>
+      </c>
+      <c r="G3163" t="n">
+        <v>1.704545454545454</v>
+      </c>
+    </row>
+    <row r="3164">
+      <c r="A3164" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="B3164" t="n">
+        <v>53900</v>
+      </c>
+      <c r="C3164" t="n">
+        <v>54300</v>
+      </c>
+      <c r="D3164" t="n">
+        <v>51500</v>
+      </c>
+      <c r="E3164" t="n">
+        <v>51800</v>
+      </c>
+      <c r="F3164" t="n">
+        <v>909983</v>
+      </c>
+      <c r="G3164" t="n">
+        <v>-3.538175046554934</v>
+      </c>
+    </row>
+    <row r="3165">
+      <c r="A3165" s="2" t="n">
+        <v>45414</v>
+      </c>
+      <c r="B3165" t="n">
+        <v>52300</v>
+      </c>
+      <c r="C3165" t="n">
+        <v>54500</v>
+      </c>
+      <c r="D3165" t="n">
+        <v>52000</v>
+      </c>
+      <c r="E3165" t="n">
+        <v>54100</v>
+      </c>
+      <c r="F3165" t="n">
+        <v>1242172</v>
+      </c>
+      <c r="G3165" t="n">
+        <v>4.440154440154441</v>
+      </c>
+    </row>
+    <row r="3166">
+      <c r="A3166" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="B3166" t="n">
+        <v>54300</v>
+      </c>
+      <c r="C3166" t="n">
+        <v>54600</v>
+      </c>
+      <c r="D3166" t="n">
+        <v>53100</v>
+      </c>
+      <c r="E3166" t="n">
+        <v>53200</v>
+      </c>
+      <c r="F3166" t="n">
+        <v>502976</v>
+      </c>
+      <c r="G3166" t="n">
+        <v>-1.66358595194085</v>
+      </c>
+    </row>
+    <row r="3167">
+      <c r="A3167" s="2" t="n">
+        <v>45419</v>
+      </c>
+      <c r="B3167" t="n">
+        <v>53300</v>
+      </c>
+      <c r="C3167" t="n">
+        <v>54000</v>
+      </c>
+      <c r="D3167" t="n">
+        <v>52100</v>
+      </c>
+      <c r="E3167" t="n">
+        <v>53200</v>
+      </c>
+      <c r="F3167" t="n">
+        <v>499946</v>
+      </c>
+      <c r="G3167" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3168">
+      <c r="A3168" s="2" t="n">
+        <v>45420</v>
+      </c>
+      <c r="B3168" t="n">
+        <v>53500</v>
+      </c>
+      <c r="C3168" t="n">
+        <v>53700</v>
+      </c>
+      <c r="D3168" t="n">
+        <v>52600</v>
+      </c>
+      <c r="E3168" t="n">
+        <v>53300</v>
+      </c>
+      <c r="F3168" t="n">
+        <v>389435</v>
+      </c>
+      <c r="G3168" t="n">
+        <v>0.1879699248120301</v>
+      </c>
+    </row>
+    <row r="3169">
+      <c r="A3169" s="2" t="n">
+        <v>45421</v>
+      </c>
+      <c r="B3169" t="n">
+        <v>53300</v>
+      </c>
+      <c r="C3169" t="n">
+        <v>54000</v>
+      </c>
+      <c r="D3169" t="n">
+        <v>52800</v>
+      </c>
+      <c r="E3169" t="n">
+        <v>53100</v>
+      </c>
+      <c r="F3169" t="n">
+        <v>415267</v>
+      </c>
+      <c r="G3169" t="n">
+        <v>-0.375234521575985</v>
+      </c>
+    </row>
+    <row r="3170">
+      <c r="A3170" s="2" t="n">
+        <v>45422</v>
+      </c>
+      <c r="B3170" t="n">
+        <v>53600</v>
+      </c>
+      <c r="C3170" t="n">
+        <v>54000</v>
+      </c>
+      <c r="D3170" t="n">
+        <v>53000</v>
+      </c>
+      <c r="E3170" t="n">
+        <v>53500</v>
+      </c>
+      <c r="F3170" t="n">
+        <v>274550</v>
+      </c>
+      <c r="G3170" t="n">
+        <v>0.7532956685499058</v>
+      </c>
+    </row>
+    <row r="3171">
+      <c r="A3171" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="B3171" t="n">
+        <v>53800</v>
+      </c>
+      <c r="C3171" t="n">
+        <v>54900</v>
+      </c>
+      <c r="D3171" t="n">
+        <v>53300</v>
+      </c>
+      <c r="E3171" t="n">
+        <v>54300</v>
+      </c>
+      <c r="F3171" t="n">
+        <v>607784</v>
+      </c>
+      <c r="G3171" t="n">
+        <v>1.495327102803738</v>
+      </c>
+    </row>
+    <row r="3172">
+      <c r="A3172" s="2" t="n">
+        <v>45426</v>
+      </c>
+      <c r="B3172" t="n">
+        <v>54500</v>
+      </c>
+      <c r="C3172" t="n">
+        <v>55400</v>
+      </c>
+      <c r="D3172" t="n">
+        <v>54100</v>
+      </c>
+      <c r="E3172" t="n">
+        <v>54500</v>
+      </c>
+      <c r="F3172" t="n">
+        <v>642536</v>
+      </c>
+      <c r="G3172" t="n">
+        <v>0.3683241252302026</v>
+      </c>
+    </row>
+    <row r="3173">
+      <c r="A3173" s="2" t="n">
+        <v>45428</v>
+      </c>
+      <c r="B3173" t="n">
+        <v>54900</v>
+      </c>
+      <c r="C3173" t="n">
+        <v>55700</v>
+      </c>
+      <c r="D3173" t="n">
+        <v>54500</v>
+      </c>
+      <c r="E3173" t="n">
+        <v>54900</v>
+      </c>
+      <c r="F3173" t="n">
+        <v>560816</v>
+      </c>
+      <c r="G3173" t="n">
+        <v>0.7339449541284404</v>
+      </c>
+    </row>
+    <row r="3174">
+      <c r="A3174" s="2" t="n">
+        <v>45429</v>
+      </c>
+      <c r="B3174" t="n">
+        <v>55000</v>
+      </c>
+      <c r="C3174" t="n">
+        <v>55700</v>
+      </c>
+      <c r="D3174" t="n">
+        <v>54000</v>
+      </c>
+      <c r="E3174" t="n">
+        <v>54300</v>
+      </c>
+      <c r="F3174" t="n">
+        <v>494932</v>
+      </c>
+      <c r="G3174" t="n">
+        <v>-1.092896174863388</v>
+      </c>
+    </row>
+    <row r="3175">
+      <c r="A3175" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="B3175" t="n">
+        <v>54300</v>
+      </c>
+      <c r="C3175" t="n">
+        <v>55500</v>
+      </c>
+      <c r="D3175" t="n">
+        <v>53900</v>
+      </c>
+      <c r="E3175" t="n">
+        <v>55200</v>
+      </c>
+      <c r="F3175" t="n">
+        <v>529925</v>
+      </c>
+      <c r="G3175" t="n">
+        <v>1.657458563535912</v>
+      </c>
+    </row>
+    <row r="3176">
+      <c r="A3176" s="2" t="n">
+        <v>45433</v>
+      </c>
+      <c r="B3176" t="n">
+        <v>54800</v>
+      </c>
+      <c r="C3176" t="n">
+        <v>55400</v>
+      </c>
+      <c r="D3176" t="n">
+        <v>54300</v>
+      </c>
+      <c r="E3176" t="n">
+        <v>54600</v>
+      </c>
+      <c r="F3176" t="n">
+        <v>335017</v>
+      </c>
+      <c r="G3176" t="n">
+        <v>-1.08695652173913</v>
       </c>
     </row>
   </sheetData>
